--- a/Lab4.xlsx
+++ b/Lab4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba8020ab16d55309/เดสก์ท็อป/Works/SQA/Lab_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\663380217-8\check\SQA_Lab4_663380217-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{BF810C61-1F3A-425A-AD0F-1202B65A342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E0C3ED-9B03-4381-82BF-5937ED448B1C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA78C39-5725-4BA4-867D-8D6EEBBE9D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D3B1ECF-CE0B-884D-A6E2-5EDB198A06FE}"/>
   </bookViews>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
   <si>
     <t>Test Case Design and Test Results</t>
   </si>
@@ -276,17 +265,20 @@
   </si>
   <si>
     <t>(frequency &gt;= 3 &amp;&amp; frequency &gt;= 5) ซึ่งทำให้ระดับ Gold ได้เฉพาะเมื่อ frequency &gt;= 5 เท่านั้น ซึ่งไม่ตรงตามเกณฑ์จริง และ (frequency &gt;= 6 &amp;&amp; frequency &lt;= 7) ซึ่งทำให้ระดับ Platinum ได้เฉพาะเมื่อ 6 &lt;= frequency &lt;= 7 เท่านั้น ซึ่งไม่ตรงตามเกณฑ์จริงที่ว่าเมื่อไปเกินกว่า 7 ครั้งจะทำให้ไม่เข้าเงื่อนไข Platinum</t>
+  </si>
+  <si>
+    <t>DE01,DE02,DE03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -325,7 +317,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -338,14 +330,14 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -557,54 +549,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,12 +571,60 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3 4" xfId="1" xr:uid="{DD4AD2A2-321B-5F4E-AAE1-B5C53296010C}"/>
     <cellStyle name="Normal_ftest" xfId="2" xr:uid="{2E60872E-C109-5D40-AEB9-649A4B5FF349}"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -972,10 +964,10 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75"/>
   <cols>
     <col min="1" max="1" width="33.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
@@ -984,7 +976,7 @@
     <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
@@ -1007,7 +999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1026,9 +1018,11 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G3" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1047,9 +1041,11 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G4" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1058,7 +1054,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7">
       <c r="A6" s="20" t="s">
         <v>43</v>
       </c>
@@ -1093,11 +1089,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEE3D1E-0814-D34A-9C7B-86FDE5AD12C8}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="27" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="27.75"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="4" width="21.33203125" style="1" customWidth="1"/>
@@ -1111,16 +1107,16 @@
     <col min="14" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
       <c r="J1" s="2"/>
       <c r="K1" s="8" t="s">
         <v>23</v>
@@ -1132,7 +1128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13">
       <c r="G2" s="4"/>
       <c r="J2" s="3" t="s">
         <v>10</v>
@@ -1147,16 +1143,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1176,16 +1172,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1205,14 +1201,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1226,13 +1222,13 @@
         <v>99999</v>
       </c>
       <c r="L5" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5" s="3">
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:13">
       <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1240,33 +1236,33 @@
         <v>100000</v>
       </c>
       <c r="L6" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="40"/>
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1276,11 +1272,11 @@
       <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1300,11 +1296,11 @@
       <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -1318,17 +1314,17 @@
         <v>500</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f t="shared" ref="E10:F21" si="0">IF(AND(B10&gt;=100000, C10&gt;=6, D10&gt;=1000), "Platinum", IF(AND(B10&gt;=50000, C10&gt;=3, D10&gt;=500),"Gold",IF(AND(B10&gt;=10000, C10&gt;=1, D10&gt;=100),"Silver","Standard")))</f>
+        <f t="shared" ref="E10:E21" si="0">IF(AND(B10&gt;=100000, C10&gt;=6, D10&gt;=1000), "Platinum", IF(AND(B10&gt;=50000, C10&gt;=3, D10&gt;=500),"Gold",IF(AND(B10&gt;=10000, C10&gt;=1, D10&gt;=100),"Silver","Standard")))</f>
         <v>Standard</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -1348,11 +1344,11 @@
       <c r="F11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -1372,11 +1368,11 @@
       <c r="F12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -1396,11 +1392,11 @@
       <c r="F13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
@@ -1420,11 +1416,11 @@
       <c r="F14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
@@ -1444,11 +1440,11 @@
       <c r="F15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -1456,7 +1452,7 @@
         <v>50000</v>
       </c>
       <c r="C16" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3">
         <v>500</v>
@@ -1468,11 +1464,11 @@
       <c r="F16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -1480,7 +1476,7 @@
         <v>50000</v>
       </c>
       <c r="C17" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3">
         <v>500</v>
@@ -1492,11 +1488,11 @@
       <c r="F17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1516,11 +1512,11 @@
       <c r="F18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
@@ -1540,11 +1536,11 @@
       <c r="F19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -1564,11 +1560,11 @@
       <c r="F20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
@@ -1588,7 +1584,7 @@
       <c r="F21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="23" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1613,11 +1609,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A52C6A-99BA-484C-B915-27B6FC4D32AF}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="27" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="27.75"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="4" width="21.33203125" style="1" customWidth="1"/>
@@ -1631,16 +1627,16 @@
     <col min="14" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
       <c r="J1" s="2"/>
       <c r="K1" s="8" t="s">
         <v>23</v>
@@ -1652,7 +1648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13">
       <c r="G2" s="4"/>
       <c r="J2" s="3" t="s">
         <v>11</v>
@@ -1670,16 +1666,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1699,16 +1695,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1731,14 +1727,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1758,7 +1754,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:13">
       <c r="J6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1768,29 +1764,29 @@
       </c>
       <c r="L6" s="3">
         <f t="shared" ref="L6:M6" si="4">L7-1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="4"/>
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="45" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -1800,14 +1796,14 @@
         <v>100000</v>
       </c>
       <c r="L7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="43"/>
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1817,9 +1813,9 @@
       <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="37"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="45"/>
       <c r="J8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1829,14 +1825,14 @@
       </c>
       <c r="L8" s="3">
         <f t="shared" ref="L8:M8" si="5">L7+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="5"/>
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1856,12 +1852,12 @@
       <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="38" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(E9=F9,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -1875,18 +1871,18 @@
         <v>500</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f t="shared" ref="E10:F27" si="6">IF(AND(B10&gt;=100000, C10&gt;=6, D10&gt;=1000), "Platinum", IF(AND(B10&gt;=50000, C10&gt;=3, D10&gt;=500),"Gold",IF(AND(B10&gt;=10000, C10&gt;=1, D10&gt;=100),"Silver","Standard")))</f>
+        <f t="shared" ref="E10:E27" si="6">IF(AND(B10&gt;=100000, C10&gt;=6, D10&gt;=1000), "Platinum", IF(AND(B10&gt;=50000, C10&gt;=3, D10&gt;=500),"Gold",IF(AND(B10&gt;=10000, C10&gt;=1, D10&gt;=100),"Silver","Standard")))</f>
         <v>Standard</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="38" t="str">
+      <c r="G10" s="22" t="str">
         <f t="shared" ref="G10:G27" si="7">IF(E10=F10,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -1906,12 +1902,12 @@
       <c r="F11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="38" t="str">
+      <c r="G11" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -1931,12 +1927,12 @@
       <c r="F12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="39" t="str">
+      <c r="G12" s="23" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -1956,12 +1952,12 @@
       <c r="F13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="39" t="str">
+      <c r="G13" s="23" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
@@ -1981,12 +1977,12 @@
       <c r="F14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="39" t="str">
+      <c r="G14" s="23" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
@@ -2006,12 +2002,12 @@
       <c r="F15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="39" t="str">
+      <c r="G15" s="23" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -2031,12 +2027,12 @@
       <c r="F16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="38" t="str">
+      <c r="G16" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -2056,12 +2052,12 @@
       <c r="F17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="39" t="str">
+      <c r="G17" s="23" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -2081,12 +2077,12 @@
       <c r="F18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="38" t="str">
+      <c r="G18" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
@@ -2106,12 +2102,12 @@
       <c r="F19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="39" t="str">
+      <c r="G19" s="23" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -2131,12 +2127,12 @@
       <c r="F20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="39" t="str">
+      <c r="G20" s="23" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
@@ -2156,12 +2152,12 @@
       <c r="F21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="39" t="str">
+      <c r="G21" s="23" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>64</v>
       </c>
@@ -2181,12 +2177,12 @@
       <c r="F22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="38" t="str">
+      <c r="G22" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
@@ -2206,12 +2202,12 @@
       <c r="F23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="38" t="str">
+      <c r="G23" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2231,12 +2227,12 @@
       <c r="F24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="38" t="str">
+      <c r="G24" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>67</v>
       </c>
@@ -2256,12 +2252,12 @@
       <c r="F25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="39" t="str">
+      <c r="G25" s="23" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>68</v>
       </c>
@@ -2281,12 +2277,12 @@
       <c r="F26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="39" t="str">
+      <c r="G26" s="23" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -2306,7 +2302,7 @@
       <c r="F27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="39" t="str">
+      <c r="G27" s="23" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
@@ -2336,7 +2332,7 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="27" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="27.75"/>
   <cols>
     <col min="1" max="2" width="10.77734375" style="1"/>
     <col min="3" max="3" width="34.21875" style="1" bestFit="1" customWidth="1"/>
@@ -2347,7 +2343,7 @@
     <col min="12" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="54" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" ht="55.5">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -2382,83 +2378,83 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11">
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="29">
         <v>244183</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11">
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="29">
         <v>244183</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:11">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="29">
         <v>244183</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="K7" s="42"/>
+    <row r="7" spans="1:11">
+      <c r="K7" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Lab4.xlsx
+++ b/Lab4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\663380217-8\check\SQA_Lab4_663380217-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA78C39-5725-4BA4-867D-8D6EEBBE9D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E05F48-2BC8-429B-B568-C2C1BB9B05CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D3B1ECF-CE0B-884D-A6E2-5EDB198A06FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2D3B1ECF-CE0B-884D-A6E2-5EDB198A06FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
   <si>
     <t>Test Case Design and Test Results</t>
   </si>
@@ -348,7 +348,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,12 +382,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +490,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -550,9 +544,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -626,7 +617,43 @@
     <cellStyle name="Normal 3 4" xfId="1" xr:uid="{DD4AD2A2-321B-5F4E-AAE1-B5C53296010C}"/>
     <cellStyle name="Normal_ftest" xfId="2" xr:uid="{2E60872E-C109-5D40-AEB9-649A4B5FF349}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -963,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CE7BA3-0BEF-0C45-955A-B350FDBEC636}">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75"/>
@@ -1007,10 +1034,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1030,10 +1057,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1064,11 +1091,11 @@
       </c>
       <c r="C6" s="17">
         <f>SUM(C3:C5)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="18">
         <f>SUM(D3:D5)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6">
         <f>SUM(E3:E5)</f>
@@ -1090,7 +1117,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="27.75"/>
@@ -1108,15 +1135,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="J1" s="2"/>
       <c r="K1" s="8" t="s">
         <v>23</v>
@@ -1147,12 +1174,12 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1176,12 +1203,12 @@
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1222,8 @@
         <v>50000</v>
       </c>
       <c r="L4" s="3">
-        <v>4</v>
+        <f>ROUND(L6/2,0)</f>
+        <v>15</v>
       </c>
       <c r="M4" s="3">
         <v>500</v>
@@ -1205,10 +1233,10 @@
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1222,7 +1250,7 @@
         <v>99999</v>
       </c>
       <c r="L5" s="3">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="M5" s="3">
         <v>999</v>
@@ -1236,33 +1264,33 @@
         <v>100000</v>
       </c>
       <c r="L6" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M6" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="39" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1272,9 +1300,9 @@
       <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="42"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
@@ -1284,20 +1312,22 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>4</v>
+        <f>$L$4</f>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
         <v>500</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f>IF(AND(B9&gt;=100000, C9&gt;=6, D9&gt;=1000), "Platinum", IF(AND(B9&gt;=50000, C9&gt;=3, D9&gt;=500),"Gold",IF(AND(B9&gt;=10000, C9&gt;=1, D9&gt;=100),"Silver","Standard")))</f>
+        <f>IF(AND(B9&gt;=100000, C9&gt;=6, D9&gt;=1000), "Platinum", IF(AND(B9&gt;=50000, 3&lt;=C9&lt;=5, D9&gt;=500),"Gold",IF(AND(B9&gt;=10000, 1&lt;=C9&lt;=2, D9&gt;=100),"Silver","Standard")))</f>
         <v>Standard</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>38</v>
+      <c r="G9" s="22" t="str">
+        <f>IF(E9=F9,"Pass","Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1308,20 +1338,22 @@
         <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
+        <f t="shared" ref="C10:C13" si="0">$L$4</f>
+        <v>15</v>
       </c>
       <c r="D10" s="3">
         <v>500</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f t="shared" ref="E10:E21" si="0">IF(AND(B10&gt;=100000, C10&gt;=6, D10&gt;=1000), "Platinum", IF(AND(B10&gt;=50000, C10&gt;=3, D10&gt;=500),"Gold",IF(AND(B10&gt;=10000, C10&gt;=1, D10&gt;=100),"Silver","Standard")))</f>
+        <f t="shared" ref="E10:E21" si="1">IF(AND(B10&gt;=100000, C10&gt;=6, D10&gt;=1000), "Platinum", IF(AND(B10&gt;=50000, 3&lt;=C10&lt;=5, D10&gt;=500),"Gold",IF(AND(B10&gt;=10000, 1&lt;=C10&lt;=2, D10&gt;=100),"Silver","Standard")))</f>
         <v>Standard</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>38</v>
+      <c r="G10" s="22" t="str">
+        <f t="shared" ref="G10:G21" si="2">IF(E10=F10,"Pass","Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1332,20 +1364,22 @@
         <v>50000</v>
       </c>
       <c r="C11" s="3">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
         <v>500</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Gold</v>
+        <f t="shared" si="1"/>
+        <v>Standard</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>39</v>
+      <c r="G11" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1356,20 +1390,22 @@
         <v>99999</v>
       </c>
       <c r="C12" s="3">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="D12" s="3">
         <v>500</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Gold</v>
+        <f t="shared" si="1"/>
+        <v>Standard</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>39</v>
+      <c r="G12" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1380,20 +1416,22 @@
         <v>100000</v>
       </c>
       <c r="C13" s="3">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>500</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Gold</v>
+        <f t="shared" si="1"/>
+        <v>Standard</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>39</v>
+      <c r="G13" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1410,14 +1448,15 @@
         <v>500</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Standard</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>38</v>
+      <c r="G14" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1434,14 +1473,15 @@
         <v>500</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Silver</v>
+        <f t="shared" si="1"/>
+        <v>Standard</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>39</v>
+      <c r="G15" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1452,20 +1492,22 @@
         <v>50000</v>
       </c>
       <c r="C16" s="3">
-        <v>6</v>
+        <f>L5</f>
+        <v>29</v>
       </c>
       <c r="D16" s="3">
         <v>500</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Gold</v>
+        <f t="shared" si="1"/>
+        <v>Standard</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>39</v>
+      <c r="G16" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1476,20 +1518,22 @@
         <v>50000</v>
       </c>
       <c r="C17" s="3">
-        <v>7</v>
+        <f>L6</f>
+        <v>30</v>
       </c>
       <c r="D17" s="3">
         <v>500</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Gold</v>
+        <f t="shared" si="1"/>
+        <v>Standard</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>39</v>
+      <c r="G17" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1500,20 +1544,22 @@
         <v>50000</v>
       </c>
       <c r="C18" s="3">
-        <v>4</v>
+        <f t="shared" ref="C18:C21" si="3">$L$4</f>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Standard</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>38</v>
+      <c r="G18" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1524,20 +1570,22 @@
         <v>50000</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Standard</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>38</v>
+      <c r="G19" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1548,20 +1596,22 @@
         <v>50000</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>999</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Gold</v>
+        <f t="shared" si="1"/>
+        <v>Standard</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>39</v>
+      <c r="G20" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1572,20 +1622,22 @@
         <v>50000</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="D21" s="3">
         <v>1000</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Gold</v>
+        <f t="shared" si="1"/>
+        <v>Standard</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>39</v>
+      <c r="G21" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
   </sheetData>
@@ -1600,6 +1652,14 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>
+  <conditionalFormatting sqref="G9:G21">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",G9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",G9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1609,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A52C6A-99BA-484C-B915-27B6FC4D32AF}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="27.75"/>
@@ -1628,15 +1688,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="J1" s="2"/>
       <c r="K1" s="8" t="s">
         <v>23</v>
@@ -1655,27 +1715,27 @@
       </c>
       <c r="K2" s="3">
         <f>K3-1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L2" s="3">
         <f t="shared" ref="L2" si="0">L3-1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2" si="1">M3-1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1686,25 +1746,25 @@
         <v>10</v>
       </c>
       <c r="K3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1716,25 +1776,25 @@
       </c>
       <c r="K4" s="3">
         <f>K3+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4" si="2">L3+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4" si="3">M3+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1748,7 +1808,8 @@
         <v>50000</v>
       </c>
       <c r="L5" s="3">
-        <v>4</v>
+        <f>ROUND(L7/2,0)</f>
+        <v>15</v>
       </c>
       <c r="M5" s="3">
         <v>500</v>
@@ -1764,7 +1825,7 @@
       </c>
       <c r="L6" s="3">
         <f t="shared" ref="L6:M6" si="4">L7-1</f>
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="4"/>
@@ -1772,21 +1833,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="43" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="45" t="s">
+      <c r="F7" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -1796,14 +1857,14 @@
         <v>100000</v>
       </c>
       <c r="L7" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M7" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="43"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1813,9 +1874,9 @@
       <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="45"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="44"/>
       <c r="J8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +1886,7 @@
       </c>
       <c r="L8" s="3">
         <f t="shared" ref="L8:M8" si="5">L7+1</f>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="5"/>
@@ -1837,16 +1898,17 @@
         <v>49</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C9" s="3">
-        <v>4</v>
+        <f>$L$5</f>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
         <v>500</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f>IF(AND(B9&gt;=100000, C9&gt;=6, D9&gt;=1000), "Platinum", IF(AND(B9&gt;=50000, C9&gt;=3, D9&gt;=500),"Gold",IF(AND(B9&gt;=10000, C9&gt;=1, D9&gt;=100),"Silver","Standard")))</f>
+        <f>IF(AND(B9&gt;=100000, C9&gt;=6, D9&gt;=1000), "Platinum", IF(AND(B9&gt;=50000, 3&lt;=C9&lt;=5, D9&gt;=500),"Gold",IF(AND(B9&gt;=10000, 1&lt;=C9&lt;=2, D9&gt;=100),"Silver","Standard")))</f>
         <v>Standard</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1862,23 +1924,24 @@
         <v>50</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
+        <f t="shared" ref="C10:C15" si="6">$L$5</f>
+        <v>15</v>
       </c>
       <c r="D10" s="3">
         <v>500</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f t="shared" ref="E10:E27" si="6">IF(AND(B10&gt;=100000, C10&gt;=6, D10&gt;=1000), "Platinum", IF(AND(B10&gt;=50000, C10&gt;=3, D10&gt;=500),"Gold",IF(AND(B10&gt;=10000, C10&gt;=1, D10&gt;=100),"Silver","Standard")))</f>
+        <f t="shared" ref="E10:E27" si="7">IF(AND(B10&gt;=100000, C10&gt;=6, D10&gt;=1000), "Platinum", IF(AND(B10&gt;=50000, 3&lt;=C10&lt;=5, D10&gt;=500),"Gold",IF(AND(B10&gt;=10000, 1&lt;=C10&lt;=2, D10&gt;=100),"Silver","Standard")))</f>
         <v>Standard</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="22" t="str">
-        <f t="shared" ref="G10:G27" si="7">IF(E10=F10,"Pass","Fail")</f>
+        <f t="shared" ref="G10:G27" si="8">IF(E10=F10,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -1887,23 +1950,24 @@
         <v>51</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
         <v>500</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Standard</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Pass</v>
       </c>
     </row>
@@ -1915,20 +1979,21 @@
         <v>50000</v>
       </c>
       <c r="C12" s="3">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="D12" s="3">
         <v>500</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Gold</v>
+        <f t="shared" si="7"/>
+        <v>Standard</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="23" t="str">
-        <f t="shared" si="7"/>
+      <c r="G12" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -1940,20 +2005,21 @@
         <v>99999</v>
       </c>
       <c r="C13" s="3">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>500</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Gold</v>
+        <f t="shared" si="7"/>
+        <v>Standard</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="23" t="str">
-        <f t="shared" si="7"/>
+      <c r="G13" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -1965,20 +2031,21 @@
         <v>100000</v>
       </c>
       <c r="C14" s="3">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
         <v>500</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Gold</v>
+        <f t="shared" si="7"/>
+        <v>Standard</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="23" t="str">
-        <f t="shared" si="7"/>
+      <c r="G14" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -1990,20 +2057,21 @@
         <v>100001</v>
       </c>
       <c r="C15" s="3">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="D15" s="3">
         <v>500</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Gold</v>
+        <f t="shared" si="7"/>
+        <v>Standard</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="23" t="str">
-        <f t="shared" si="7"/>
+      <c r="G15" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -2015,20 +2083,20 @@
         <v>50000</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16" s="3">
         <v>500</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Standard</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2040,21 +2108,21 @@
         <v>50000</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
         <v>500</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" ref="E17" si="8">IF(AND(B17&gt;=100000, C17&gt;=6, D17&gt;=1000), "Platinum", IF(AND(B17&gt;=50000, C17&gt;=3, D17&gt;=500),"Gold",IF(AND(B17&gt;=10000, C17&gt;=1, D17&gt;=100),"Silver","Standard")))</f>
-        <v>Silver</v>
+        <f t="shared" si="7"/>
+        <v>Standard</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v>Fail</v>
+      <c r="G17" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2065,20 +2133,20 @@
         <v>50000</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
         <v>500</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Silver</v>
+        <f t="shared" si="7"/>
+        <v>Standard</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2090,20 +2158,21 @@
         <v>50000</v>
       </c>
       <c r="C19" s="3">
-        <v>5</v>
+        <f>L6</f>
+        <v>29</v>
       </c>
       <c r="D19" s="3">
         <v>500</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Gold</v>
+        <f t="shared" si="7"/>
+        <v>Standard</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="23" t="str">
-        <f t="shared" si="7"/>
+      <c r="G19" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -2115,20 +2184,21 @@
         <v>50000</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
+        <f>L7</f>
+        <v>30</v>
       </c>
       <c r="D20" s="3">
         <v>500</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Gold</v>
+        <f t="shared" si="7"/>
+        <v>Standard</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="23" t="str">
-        <f t="shared" si="7"/>
+      <c r="G20" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -2140,20 +2210,21 @@
         <v>50000</v>
       </c>
       <c r="C21" s="3">
-        <v>7</v>
+        <f>L8</f>
+        <v>31</v>
       </c>
       <c r="D21" s="3">
         <v>500</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Gold</v>
+        <f t="shared" si="7"/>
+        <v>Standard</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="23" t="str">
-        <f t="shared" si="7"/>
+      <c r="G21" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -2165,20 +2236,21 @@
         <v>50000</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <f t="shared" ref="C22:C27" si="9">$L$5</f>
+        <v>15</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Standard</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G22" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2190,20 +2262,21 @@
         <v>50000</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Standard</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G23" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2215,20 +2288,21 @@
         <v>50000</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Standard</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G24" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2240,20 +2314,21 @@
         <v>50000</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="D25" s="3">
         <v>999</v>
       </c>
       <c r="E25" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Gold</v>
+        <f t="shared" si="7"/>
+        <v>Standard</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="23" t="str">
-        <f t="shared" si="7"/>
+      <c r="G25" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -2265,20 +2340,21 @@
         <v>50000</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="D26" s="3">
         <v>1000</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Gold</v>
+        <f t="shared" si="7"/>
+        <v>Standard</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="23" t="str">
-        <f t="shared" si="7"/>
+      <c r="G26" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -2290,20 +2366,21 @@
         <v>50000</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="D27" s="3">
         <v>1001</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Gold</v>
+        <f t="shared" si="7"/>
+        <v>Standard</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="23" t="str">
-        <f t="shared" si="7"/>
+      <c r="G27" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -2320,7 +2397,16 @@
     <mergeCell ref="G7:G8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G9:G27">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",G9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",G9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2329,7 +2415,7 @@
   <dimension ref="A2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="27.75"/>
@@ -2382,24 +2468,24 @@
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>244183</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2407,24 +2493,24 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>244183</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2432,29 +2518,29 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>244183</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="K7" s="26"/>
+      <c r="K7" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
